--- a/src/main/resources/系統Table架構.xlsx
+++ b/src/main/resources/系統Table架構.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cynthia.li/Documents/cynMiniHR/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F55646-4265-5545-8EAC-5EC1826B3772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F0708A-E9C6-7C46-9C3C-54A4798D4B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="9" xr2:uid="{D4F3D69C-4275-2049-B2D9-D7F9B2709D49}"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="1" xr2:uid="{D4F3D69C-4275-2049-B2D9-D7F9B2709D49}"/>
   </bookViews>
   <sheets>
     <sheet name="公司資訊" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="414">
   <si>
     <t>工號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1213,6 +1213,462 @@
   </si>
   <si>
     <t>出差地域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_short_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_nation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_cid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_post_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_month_days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_day_hours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attendance_rule_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attendance_rule_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtime_method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_emp_spec_days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_emp_spec_months</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attendance_pl_month_times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attendance_pl_month_unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ovdftime_method_cal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtime_increase_hours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtime_comp_method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtime_comp_keep_limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spec_leave_overtime_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public_overtime_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workcard_prefix_hours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workcard_post_hours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtime_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtime_phase1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtime_phase2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtime_phase3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtime_phase4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attendance_rules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtime_rules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dept_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dept_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upper_dept_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dept_mgr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dept_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_members</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function_lists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function_actions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employees</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee_chname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee_enname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee_card_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>職稱代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>職稱名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_indate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_photo_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_login_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_login_pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_work_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_no_card_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_salary_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_class_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_identity_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_birthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_marriage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_nation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_tel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_family_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_family_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_family_birthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_family_sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_family_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_family_isAdopt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_health_insurance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_school_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_school_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_school_subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_school_start_ym</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_school_end_ym</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_graduate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduate_attach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service_company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service_unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service_start_ym</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service_end_ym</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service_salary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service_memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service_years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service_quit_memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service_attach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>certificate_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>certificate_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cert_valid_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cert_memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cert_attach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cert_get_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_contact_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_family</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_school_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_experience_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_certificate_info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1580,217 +2036,485 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86683DB1-A6C0-C641-9E56-A13A46984F99}">
-  <dimension ref="A2:Q38"/>
+  <dimension ref="A2:R51"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50:G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
+    <row r="2" spans="1:18">
+      <c r="B2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
+      <c r="C2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="B3" t="s">
         <v>162</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>160</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>161</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>163</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>165</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>164</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>272</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
-      <c r="A8" t="s">
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G4" t="s">
+        <v>307</v>
+      </c>
+      <c r="H4" t="s">
+        <v>308</v>
+      </c>
+      <c r="I4" t="s">
+        <v>309</v>
+      </c>
+      <c r="J4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="B8" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" t="s">
+      <c r="C8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="B9" t="s">
         <v>162</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>167</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>168</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>169</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>170</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>171</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>172</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>173</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>174</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>175</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>176</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>177</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>178</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>179</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>180</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>186</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
-      <c r="A13" t="s">
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D10" t="s">
+        <v>312</v>
+      </c>
+      <c r="E10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F10" t="s">
+        <v>314</v>
+      </c>
+      <c r="G10" t="s">
+        <v>316</v>
+      </c>
+      <c r="H10" t="s">
+        <v>315</v>
+      </c>
+      <c r="I10" t="s">
+        <v>318</v>
+      </c>
+      <c r="J10" t="s">
+        <v>317</v>
+      </c>
+      <c r="K10" t="s">
+        <v>319</v>
+      </c>
+      <c r="L10" t="s">
+        <v>320</v>
+      </c>
+      <c r="M10" t="s">
+        <v>321</v>
+      </c>
+      <c r="N10" t="s">
+        <v>322</v>
+      </c>
+      <c r="O10" t="s">
+        <v>323</v>
+      </c>
+      <c r="P10" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>325</v>
+      </c>
+      <c r="R10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="B15" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="32">
-      <c r="A14" t="s">
+      <c r="C15" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="32">
+      <c r="B16" t="s">
         <v>162</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D16" t="s">
         <v>181</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E16" t="s">
         <v>182</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F16" t="s">
         <v>183</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G16" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>301</v>
+      </c>
+      <c r="B17" t="s">
+        <v>302</v>
+      </c>
+      <c r="C17" t="s">
+        <v>327</v>
+      </c>
+      <c r="D17" t="s">
+        <v>328</v>
+      </c>
+      <c r="E17" t="s">
+        <v>329</v>
+      </c>
+      <c r="F17" t="s">
+        <v>330</v>
+      </c>
+      <c r="G17" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
+      <c r="C22" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" t="s">
         <v>162</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C23" t="s">
         <v>275</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D23" t="s">
         <v>276</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E23" t="s">
         <v>277</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F23" t="s">
         <v>278</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G23" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
+      <c r="H23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>301</v>
+      </c>
+      <c r="B24" t="s">
+        <v>302</v>
+      </c>
+      <c r="C24" t="s">
+        <v>335</v>
+      </c>
+      <c r="D24" t="s">
+        <v>336</v>
+      </c>
+      <c r="E24" t="s">
+        <v>337</v>
+      </c>
+      <c r="F24" t="s">
+        <v>338</v>
+      </c>
+      <c r="G24" t="s">
+        <v>339</v>
+      </c>
+      <c r="H24" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" t="s">
+        <v>356</v>
+      </c>
+      <c r="D31" t="s">
+        <v>357</v>
+      </c>
+      <c r="E31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>301</v>
+      </c>
+      <c r="B32" t="s">
+        <v>302</v>
+      </c>
+      <c r="C32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D32" t="s">
+        <v>358</v>
+      </c>
+      <c r="E32" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="B35" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
+      <c r="C35" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="B36" t="s">
         <v>162</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C36" t="s">
         <v>285</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D36" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" t="s">
-        <v>285</v>
-      </c>
-      <c r="C32" t="s">
-        <v>0</v>
+      <c r="E36" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
+        <v>301</v>
+      </c>
+      <c r="B37" t="s">
+        <v>302</v>
+      </c>
+      <c r="C37" t="s">
+        <v>341</v>
+      </c>
+      <c r="D37" t="s">
+        <v>342</v>
+      </c>
+      <c r="E37" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="B42" t="s">
+        <v>288</v>
+      </c>
+      <c r="C42" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="B43" t="s">
+        <v>162</v>
+      </c>
+      <c r="C43" t="s">
+        <v>285</v>
+      </c>
+      <c r="D43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>301</v>
+      </c>
+      <c r="B44" t="s">
+        <v>302</v>
+      </c>
+      <c r="C44" t="s">
+        <v>341</v>
+      </c>
+      <c r="D44" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="B49" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
+      <c r="C49" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="B50" t="s">
         <v>289</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C50" t="s">
         <v>280</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D50" t="s">
         <v>281</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E50" t="s">
         <v>282</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F50" t="s">
         <v>283</v>
+      </c>
+      <c r="G50" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>301</v>
+      </c>
+      <c r="B51" t="s">
+        <v>346</v>
+      </c>
+      <c r="C51" t="s">
+        <v>347</v>
+      </c>
+      <c r="D51" t="s">
+        <v>348</v>
+      </c>
+      <c r="E51" t="s">
+        <v>349</v>
+      </c>
+      <c r="F51" t="s">
+        <v>341</v>
+      </c>
+      <c r="G51" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -1803,7 +2527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EE5B4E-672C-D347-8DD0-A0AD986A5054}">
   <dimension ref="A3:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1896,246 +2620,508 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1AC5EE-E8B1-2C4A-A396-E435960A4BF1}">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:X39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" t="s">
+    <row r="1" spans="1:24">
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" t="s">
+      <c r="C1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>275</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>60</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>20</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>13</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>15</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>9</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>8</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>12</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>17</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>22</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
-      <c r="A5" t="s">
+    <row r="3" spans="1:24">
+      <c r="A3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G3" t="s">
+        <v>335</v>
+      </c>
+      <c r="H3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I3" t="s">
+        <v>360</v>
+      </c>
+      <c r="J3" t="s">
+        <v>361</v>
+      </c>
+      <c r="K3" t="s">
+        <v>362</v>
+      </c>
+      <c r="L3" t="s">
+        <v>363</v>
+      </c>
+      <c r="M3" t="s">
+        <v>364</v>
+      </c>
+      <c r="N3" t="s">
+        <v>365</v>
+      </c>
+      <c r="O3" t="s">
+        <v>366</v>
+      </c>
+      <c r="P3" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>365</v>
+      </c>
+      <c r="R3" t="s">
+        <v>368</v>
+      </c>
+      <c r="S3" t="s">
+        <v>369</v>
+      </c>
+      <c r="T3" t="s">
+        <v>370</v>
+      </c>
+      <c r="U3" t="s">
+        <v>371</v>
+      </c>
+      <c r="V3" t="s">
+        <v>372</v>
+      </c>
+      <c r="W3" t="s">
+        <v>373</v>
+      </c>
+      <c r="X3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" t="s">
+      <c r="C9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="B10" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E10" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
-      <c r="A9" t="s">
+    <row r="11" spans="1:24">
+      <c r="A11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C11" t="s">
+        <v>375</v>
+      </c>
+      <c r="D11" t="s">
+        <v>376</v>
+      </c>
+      <c r="E11" t="s">
+        <v>377</v>
+      </c>
+      <c r="F11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="16" customHeight="1"/>
+    <row r="14" spans="1:24" ht="16" customHeight="1"/>
+    <row r="15" spans="1:24" ht="16" customHeight="1"/>
+    <row r="16" spans="1:24">
+      <c r="B16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" t="s">
+      <c r="C16" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="B17" t="s">
         <v>0</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C17" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D17" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E17" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F17" t="s">
         <v>32</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G17" t="s">
         <v>33</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H17" t="s">
         <v>34</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
-      <c r="A13" t="s">
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>301</v>
+      </c>
+      <c r="B18" t="s">
+        <v>344</v>
+      </c>
+      <c r="C18" t="s">
+        <v>378</v>
+      </c>
+      <c r="D18" t="s">
+        <v>379</v>
+      </c>
+      <c r="E18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F18" t="s">
+        <v>381</v>
+      </c>
+      <c r="G18" t="s">
+        <v>382</v>
+      </c>
+      <c r="H18" t="s">
+        <v>383</v>
+      </c>
+      <c r="I18" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="B23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" t="s">
+      <c r="C23" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="B24" t="s">
         <v>0</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C24" t="s">
         <v>37</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D24" t="s">
         <v>38</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E24" t="s">
         <v>39</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F24" t="s">
         <v>40</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G24" t="s">
         <v>41</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H24" t="s">
         <v>42</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" t="s">
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>301</v>
+      </c>
+      <c r="B25" t="s">
+        <v>344</v>
+      </c>
+      <c r="C25" t="s">
+        <v>385</v>
+      </c>
+      <c r="D25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E25" t="s">
+        <v>387</v>
+      </c>
+      <c r="F25" t="s">
+        <v>388</v>
+      </c>
+      <c r="G25" t="s">
+        <v>389</v>
+      </c>
+      <c r="H25" t="s">
+        <v>390</v>
+      </c>
+      <c r="I25" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" t="s">
+      <c r="C30" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="B31" t="s">
         <v>0</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C31" t="s">
         <v>45</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D31" t="s">
         <v>46</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E31" t="s">
         <v>7</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F31" t="s">
         <v>47</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G31" t="s">
         <v>48</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H31" t="s">
         <v>49</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I31" t="s">
         <v>50</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J31" t="s">
         <v>51</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K31" t="s">
         <v>52</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L31" t="s">
         <v>53</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M31" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" t="s">
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>301</v>
+      </c>
+      <c r="B32" t="s">
+        <v>344</v>
+      </c>
+      <c r="C32" t="s">
+        <v>392</v>
+      </c>
+      <c r="D32" t="s">
+        <v>393</v>
+      </c>
+      <c r="E32" t="s">
+        <v>394</v>
+      </c>
+      <c r="F32" t="s">
+        <v>395</v>
+      </c>
+      <c r="G32" t="s">
+        <v>396</v>
+      </c>
+      <c r="H32" t="s">
+        <v>397</v>
+      </c>
+      <c r="I32" t="s">
+        <v>398</v>
+      </c>
+      <c r="J32" t="s">
+        <v>399</v>
+      </c>
+      <c r="K32" t="s">
+        <v>400</v>
+      </c>
+      <c r="L32" t="s">
+        <v>401</v>
+      </c>
+      <c r="M32" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" t="s">
+      <c r="C37" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="B38" t="s">
         <v>0</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C38" t="s">
         <v>56</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D38" t="s">
         <v>57</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E38" t="s">
         <v>58</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F38" t="s">
         <v>59</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G38" t="s">
         <v>50</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H38" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>301</v>
+      </c>
+      <c r="B39" t="s">
+        <v>344</v>
+      </c>
+      <c r="C39" t="s">
+        <v>403</v>
+      </c>
+      <c r="D39" t="s">
+        <v>404</v>
+      </c>
+      <c r="E39" t="s">
+        <v>408</v>
+      </c>
+      <c r="F39" t="s">
+        <v>405</v>
+      </c>
+      <c r="G39" t="s">
+        <v>406</v>
+      </c>
+      <c r="H39" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
